--- a/biology/Botanique/Triuridaceae/Triuridaceae.xlsx
+++ b/biology/Botanique/Triuridaceae/Triuridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Triuridacées est une famille de plantes monocotylédones qui comprend moins de cent espèces réparties en une dizaine de genres.
 Ce sont des plantes très particulières.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Triuris qui vient du grec τρια (tria) trois et ουρά (oura) queue, en référence aux fleurs qui ont trois tépales en formant de longues pointes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Triuris qui vient du grec τρια (tria) trois et ουρά (oura) queue, en référence aux fleurs qui ont trois tépales en formant de longues pointes.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Pandanales.
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Liste des espèces et genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 septembre 2017)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 septembre 2017) :
 genre Kihansia
 genre Kupea (en)
 genre Lacandonia (en)
@@ -613,7 +633,7 @@
 genre Soridium (en)
 genre Triuridopsis (en)
 genre Triuris (en)
-Selon DELTA Angio           (18 septembre 2017)[5] :
+Selon DELTA Angio           (18 septembre 2017) :
 genre Andruris (en)
 genre Hexuris (en)
 genre Hyalisma (en)
@@ -621,7 +641,7 @@
 genre Seychellaris
 genre Soridium
 genre Triuris
-Selon GRIN            (18 septembre 2017)[2] :
+Selon GRIN            (18 septembre 2017) :
 genre Lacandonia
 Lacandonia schismatica E. Martínez &amp; Ramos
 genre Sciaphila
@@ -629,9 +649,9 @@
 genre Triuris
 Triuris brevistylis Donn. Sm.
 Triuris hyalina Miers
-Selon ITIS      (18 septembre 2017)[6] :
+Selon ITIS      (18 septembre 2017) :
 genre Sciaphila Blume
-Selon World Checklist of Selected Plant Families (WCSP)  (18 septembre 2017)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (18 septembre 2017) :
 genre Kihansia Cheek (2003 publ. 2004)
 Kihansia jengiensis Sainge &amp; Kenfack, Kew Bull. (2015)
 Kihansia lovettii Cheek (2003 publ. 2004)
@@ -698,7 +718,7 @@
 Triuris brevistylis Donn.Sm. (1891)
 Triuris hexophthalma Maas (1986)
 Triuris hyalina Miers (1841)
-Selon NCBI  (18 septembre 2017)[8] :
+Selon NCBI  (18 septembre 2017) :
 genre Andruris
 genre Kihansia
 genre Kupea
@@ -724,10 +744,10 @@
 genre Triuris
 Triuris hexophthalma
 Triuris hyalina
-Selon Paleobiology Database                   (18 septembre 2017)[9] :
+Selon Paleobiology Database                   (18 septembre 2017) :
 genre Mabelia
 genre Nuhliantha
-Selon Tropicos                                           (18 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 genre Andruris Schltr.
 genre Aphylleia Champ.
 genre Hexuris Miers
